--- a/data/data_freezing.xlsx
+++ b/data/data_freezing.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteovecchi/Dropbox/My Mac (MacBook-Pro.station)/Documents/freezing_tardigrades/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mavecchi\Dropbox\My Mac (MacBook-Pro.station)\Documents\R projects\freezing_cycles\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8E57C-096B-3F40-978B-12F82386FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61B0837-AE70-4622-B653-194B43C007A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24280" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_cycles" sheetId="16" r:id="rId1"/>
-    <sheet name="data_longterm" sheetId="18" r:id="rId2"/>
-    <sheet name="species_data" sheetId="19" r:id="rId3"/>
-    <sheet name="species_abbrev" sheetId="17" r:id="rId4"/>
+    <sheet name="species_data" sheetId="19" r:id="rId2"/>
+    <sheet name="species_abbrev" sheetId="17" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="316">
   <si>
     <t>hk</t>
   </si>
@@ -937,12 +936,6 @@
     <t>Peatland (FI)</t>
   </si>
   <si>
-    <t>survival</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -962,9 +955,6 @@
   </si>
   <si>
     <t>Macrobiotus_ripperi</t>
-  </si>
-  <si>
-    <t>Adropion_Finland</t>
   </si>
   <si>
     <t>Paramacrobiotus_fairbanksi</t>
@@ -990,12 +980,15 @@
   <si>
     <t>Moss</t>
   </si>
+  <si>
+    <t>Adropion_scoticum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,6 +1033,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1062,7 +1061,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1079,6 +1078,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1376,17 +1378,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="9.1640625" style="1"/>
-    <col min="12" max="12" width="9.1640625" style="4"/>
-    <col min="14" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="4"/>
+    <col min="14" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1481,7 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1589,7 +1591,7 @@
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1646,7 @@
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1701,7 @@
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1754,7 +1756,7 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +1811,7 @@
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1864,7 +1866,7 @@
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1919,7 +1921,7 @@
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1974,7 +1976,7 @@
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2029,7 +2031,7 @@
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2084,7 +2086,7 @@
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2139,7 +2141,7 @@
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2194,7 +2196,7 @@
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2249,7 +2251,7 @@
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2304,7 +2306,7 @@
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2359,7 +2361,7 @@
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2414,7 +2416,7 @@
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2469,7 +2471,7 @@
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2524,7 +2526,7 @@
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2579,7 +2581,7 @@
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2636,7 @@
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2691,7 @@
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2744,7 +2746,7 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2799,7 +2801,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2854,7 +2856,7 @@
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -2909,7 +2911,7 @@
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2964,7 +2966,7 @@
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -3019,7 +3021,7 @@
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3074,7 +3076,7 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3129,7 +3131,7 @@
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3184,7 +3186,7 @@
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3239,7 +3241,7 @@
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3296,7 @@
       <c r="AD35" s="5"/>
       <c r="AE35" s="5"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3349,7 +3351,7 @@
       <c r="AD36" s="5"/>
       <c r="AE36" s="5"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -3404,7 +3406,7 @@
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -3459,7 +3461,7 @@
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -3514,7 +3516,7 @@
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -3569,7 +3571,7 @@
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3624,7 +3626,7 @@
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -3679,7 +3681,7 @@
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -3734,7 +3736,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -3789,7 +3791,7 @@
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -3844,7 +3846,7 @@
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3899,7 +3901,7 @@
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3954,7 +3956,7 @@
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4009,7 +4011,7 @@
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -4064,7 +4066,7 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4119,7 +4121,7 @@
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -4174,7 +4176,7 @@
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -4229,7 +4231,7 @@
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -4284,7 +4286,7 @@
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4339,7 +4341,7 @@
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4394,7 +4396,7 @@
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -4449,7 +4451,7 @@
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -4504,7 +4506,7 @@
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -4559,7 +4561,7 @@
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -4614,7 +4616,7 @@
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -4669,7 +4671,7 @@
       <c r="AD60" s="5"/>
       <c r="AE60" s="5"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -4724,7 +4726,7 @@
       <c r="AD61" s="5"/>
       <c r="AE61" s="5"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -4779,7 +4781,7 @@
       <c r="AD62" s="5"/>
       <c r="AE62" s="5"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -4834,7 +4836,7 @@
       <c r="AD63" s="5"/>
       <c r="AE63" s="5"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>27</v>
       </c>
@@ -4889,7 +4891,7 @@
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>28</v>
       </c>
@@ -4944,7 +4946,7 @@
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>29</v>
       </c>
@@ -4999,7 +5001,7 @@
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -5054,7 +5056,7 @@
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
@@ -5164,7 +5166,7 @@
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>33</v>
       </c>
@@ -5219,7 +5221,7 @@
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -5274,7 +5276,7 @@
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -5329,7 +5331,7 @@
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
@@ -5384,7 +5386,7 @@
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>37</v>
       </c>
@@ -5439,7 +5441,7 @@
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -5494,7 +5496,7 @@
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -5549,7 +5551,7 @@
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -5604,7 +5606,7 @@
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>41</v>
       </c>
@@ -5659,7 +5661,7 @@
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>42</v>
       </c>
@@ -5714,7 +5716,7 @@
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -5769,7 +5771,7 @@
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>44</v>
       </c>
@@ -5824,7 +5826,7 @@
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>45</v>
       </c>
@@ -5879,7 +5881,7 @@
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -5934,7 +5936,7 @@
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>47</v>
       </c>
@@ -5989,7 +5991,7 @@
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>48</v>
       </c>
@@ -6044,7 +6046,7 @@
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -6099,7 +6101,7 @@
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -6209,7 +6211,7 @@
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>41</v>
       </c>
@@ -6264,7 +6266,7 @@
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>42</v>
       </c>
@@ -6319,7 +6321,7 @@
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>43</v>
       </c>
@@ -6374,7 +6376,7 @@
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -6429,7 +6431,7 @@
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -6484,7 +6486,7 @@
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -6539,7 +6541,7 @@
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>49</v>
       </c>
@@ -6594,7 +6596,7 @@
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>48</v>
       </c>
@@ -6649,7 +6651,7 @@
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -6704,7 +6706,7 @@
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -6759,7 +6761,7 @@
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>53</v>
       </c>
@@ -6814,7 +6816,7 @@
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>54</v>
       </c>
@@ -6869,7 +6871,7 @@
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -6924,7 +6926,7 @@
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>56</v>
       </c>
@@ -6979,7 +6981,7 @@
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -7034,7 +7036,7 @@
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -7089,7 +7091,7 @@
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>59</v>
       </c>
@@ -7144,7 +7146,7 @@
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>60</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>61</v>
       </c>
@@ -7254,7 +7256,7 @@
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -7309,7 +7311,7 @@
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -7364,7 +7366,7 @@
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>64</v>
       </c>
@@ -7419,7 +7421,7 @@
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>65</v>
       </c>
@@ -7474,7 +7476,7 @@
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>66</v>
       </c>
@@ -7529,7 +7531,7 @@
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>67</v>
       </c>
@@ -7584,7 +7586,7 @@
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -7639,7 +7641,7 @@
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>69</v>
       </c>
@@ -7694,7 +7696,7 @@
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>70</v>
       </c>
@@ -7749,7 +7751,7 @@
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -7804,7 +7806,7 @@
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -7859,7 +7861,7 @@
       <c r="AD118" s="5"/>
       <c r="AE118" s="5"/>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>53</v>
       </c>
@@ -7914,7 +7916,7 @@
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -7969,7 +7971,7 @@
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -8024,7 +8026,7 @@
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>55</v>
       </c>
@@ -8079,7 +8081,7 @@
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>56</v>
       </c>
@@ -8134,7 +8136,7 @@
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -8189,7 +8191,7 @@
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>58</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>59</v>
       </c>
@@ -8299,7 +8301,7 @@
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>73</v>
       </c>
@@ -8354,7 +8356,7 @@
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>75</v>
       </c>
@@ -8409,7 +8411,7 @@
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>76</v>
       </c>
@@ -8464,7 +8466,7 @@
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>77</v>
       </c>
@@ -8519,7 +8521,7 @@
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>78</v>
       </c>
@@ -8574,7 +8576,7 @@
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>79</v>
       </c>
@@ -8629,7 +8631,7 @@
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>80</v>
       </c>
@@ -8684,7 +8686,7 @@
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>81</v>
       </c>
@@ -8739,7 +8741,7 @@
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>82</v>
       </c>
@@ -8794,7 +8796,7 @@
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -8849,7 +8851,7 @@
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>84</v>
       </c>
@@ -8904,7 +8906,7 @@
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>85</v>
       </c>
@@ -8959,7 +8961,7 @@
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>86</v>
       </c>
@@ -9014,7 +9016,7 @@
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>87</v>
       </c>
@@ -9069,7 +9071,7 @@
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>88</v>
       </c>
@@ -9124,7 +9126,7 @@
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -9179,7 +9181,7 @@
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>90</v>
       </c>
@@ -9234,7 +9236,7 @@
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>91</v>
       </c>
@@ -9289,7 +9291,7 @@
       <c r="AD144" s="5"/>
       <c r="AE144" s="5"/>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -9344,7 +9346,7 @@
       <c r="AD145" s="5"/>
       <c r="AE145" s="5"/>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>93</v>
       </c>
@@ -9399,7 +9401,7 @@
       <c r="AD146" s="5"/>
       <c r="AE146" s="5"/>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -9454,7 +9456,7 @@
       <c r="AD147" s="5"/>
       <c r="AE147" s="5"/>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>95</v>
       </c>
@@ -9509,7 +9511,7 @@
       <c r="AD148" s="5"/>
       <c r="AE148" s="5"/>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -9564,7 +9566,7 @@
       <c r="AD149" s="5"/>
       <c r="AE149" s="5"/>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -9619,7 +9621,7 @@
       <c r="AD150" s="5"/>
       <c r="AE150" s="5"/>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>78</v>
       </c>
@@ -9674,7 +9676,7 @@
       <c r="AD151" s="5"/>
       <c r="AE151" s="5"/>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>79</v>
       </c>
@@ -9729,7 +9731,7 @@
       <c r="AD152" s="5"/>
       <c r="AE152" s="5"/>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>80</v>
       </c>
@@ -9784,7 +9786,7 @@
       <c r="AD153" s="5"/>
       <c r="AE153" s="5"/>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>96</v>
       </c>
@@ -9839,7 +9841,7 @@
       <c r="AD154" s="5"/>
       <c r="AE154" s="5"/>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>81</v>
       </c>
@@ -9894,7 +9896,7 @@
       <c r="AD155" s="5"/>
       <c r="AE155" s="5"/>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>82</v>
       </c>
@@ -9949,7 +9951,7 @@
       <c r="AD156" s="5"/>
       <c r="AE156" s="5"/>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>83</v>
       </c>
@@ -10004,7 +10006,7 @@
       <c r="AD157" s="5"/>
       <c r="AE157" s="5"/>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>84</v>
       </c>
@@ -10059,7 +10061,7 @@
       <c r="AD158" s="5"/>
       <c r="AE158" s="5"/>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -10114,7 +10116,7 @@
       <c r="AD159" s="5"/>
       <c r="AE159" s="5"/>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>86</v>
       </c>
@@ -10169,7 +10171,7 @@
       <c r="AD160" s="5"/>
       <c r="AE160" s="5"/>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -10224,7 +10226,7 @@
       <c r="AD161" s="5"/>
       <c r="AE161" s="5"/>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>88</v>
       </c>
@@ -10279,7 +10281,7 @@
       <c r="AD162" s="5"/>
       <c r="AE162" s="5"/>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>89</v>
       </c>
@@ -10334,7 +10336,7 @@
       <c r="AD163" s="5"/>
       <c r="AE163" s="5"/>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>90</v>
       </c>
@@ -10389,7 +10391,7 @@
       <c r="AD164" s="5"/>
       <c r="AE164" s="5"/>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>91</v>
       </c>
@@ -10444,7 +10446,7 @@
       <c r="AD165" s="5"/>
       <c r="AE165" s="5"/>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -10499,7 +10501,7 @@
       <c r="AD166" s="5"/>
       <c r="AE166" s="5"/>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>93</v>
       </c>
@@ -10554,7 +10556,7 @@
       <c r="AD167" s="5"/>
       <c r="AE167" s="5"/>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>94</v>
       </c>
@@ -10609,7 +10611,7 @@
       <c r="AD168" s="5"/>
       <c r="AE168" s="5"/>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>95</v>
       </c>
@@ -10664,7 +10666,7 @@
       <c r="AD169" s="5"/>
       <c r="AE169" s="5"/>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>97</v>
       </c>
@@ -10719,7 +10721,7 @@
       <c r="AD170" s="5"/>
       <c r="AE170" s="5"/>
     </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>75</v>
       </c>
@@ -10774,7 +10776,7 @@
       <c r="AD171" s="5"/>
       <c r="AE171" s="5"/>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>98</v>
       </c>
@@ -10829,7 +10831,7 @@
       <c r="AD172" s="5"/>
       <c r="AE172" s="5"/>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>76</v>
       </c>
@@ -10884,7 +10886,7 @@
       <c r="AD173" s="5"/>
       <c r="AE173" s="5"/>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>77</v>
       </c>
@@ -10939,7 +10941,7 @@
       <c r="AD174" s="5"/>
       <c r="AE174" s="5"/>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>80</v>
       </c>
@@ -10994,7 +10996,7 @@
       <c r="AD175" s="5"/>
       <c r="AE175" s="5"/>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>96</v>
       </c>
@@ -11049,7 +11051,7 @@
       <c r="AD176" s="5"/>
       <c r="AE176" s="5"/>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>81</v>
       </c>
@@ -11104,7 +11106,7 @@
       <c r="AD177" s="5"/>
       <c r="AE177" s="5"/>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>82</v>
       </c>
@@ -11159,7 +11161,7 @@
       <c r="AD178" s="5"/>
       <c r="AE178" s="5"/>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>82</v>
       </c>
@@ -11214,7 +11216,7 @@
       <c r="AD179" s="5"/>
       <c r="AE179" s="5"/>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>84</v>
       </c>
@@ -11269,7 +11271,7 @@
       <c r="AD180" s="5"/>
       <c r="AE180" s="5"/>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>85</v>
       </c>
@@ -11324,7 +11326,7 @@
       <c r="AD181" s="5"/>
       <c r="AE181" s="5"/>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>85</v>
       </c>
@@ -11379,7 +11381,7 @@
       <c r="AD182" s="5"/>
       <c r="AE182" s="5"/>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>86</v>
       </c>
@@ -11434,7 +11436,7 @@
       <c r="AD183" s="5"/>
       <c r="AE183" s="5"/>
     </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>87</v>
       </c>
@@ -11489,7 +11491,7 @@
       <c r="AD184" s="5"/>
       <c r="AE184" s="5"/>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>88</v>
       </c>
@@ -11544,7 +11546,7 @@
       <c r="AD185" s="5"/>
       <c r="AE185" s="5"/>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>89</v>
       </c>
@@ -11599,7 +11601,7 @@
       <c r="AD186" s="5"/>
       <c r="AE186" s="5"/>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>89</v>
       </c>
@@ -11654,7 +11656,7 @@
       <c r="AD187" s="5"/>
       <c r="AE187" s="5"/>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>91</v>
       </c>
@@ -11709,7 +11711,7 @@
       <c r="AD188" s="5"/>
       <c r="AE188" s="5"/>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>92</v>
       </c>
@@ -11764,7 +11766,7 @@
       <c r="AD189" s="5"/>
       <c r="AE189" s="5"/>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>93</v>
       </c>
@@ -11819,7 +11821,7 @@
       <c r="AD190" s="5"/>
       <c r="AE190" s="5"/>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>94</v>
       </c>
@@ -11874,7 +11876,7 @@
       <c r="AD191" s="5"/>
       <c r="AE191" s="5"/>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -11929,7 +11931,7 @@
       <c r="AD192" s="5"/>
       <c r="AE192" s="5"/>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>97</v>
       </c>
@@ -11984,7 +11986,7 @@
       <c r="AD193" s="5"/>
       <c r="AE193" s="5"/>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>100</v>
       </c>
@@ -12039,7 +12041,7 @@
       <c r="AD194" s="5"/>
       <c r="AE194" s="5"/>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>101</v>
       </c>
@@ -12094,7 +12096,7 @@
       <c r="AD195" s="5"/>
       <c r="AE195" s="5"/>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>102</v>
       </c>
@@ -12149,7 +12151,7 @@
       <c r="AD196" s="5"/>
       <c r="AE196" s="5"/>
     </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>103</v>
       </c>
@@ -12204,7 +12206,7 @@
       <c r="AD197" s="5"/>
       <c r="AE197" s="5"/>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>104</v>
       </c>
@@ -12259,7 +12261,7 @@
       <c r="AD198" s="5"/>
       <c r="AE198" s="5"/>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>105</v>
       </c>
@@ -12314,7 +12316,7 @@
       <c r="AD199" s="5"/>
       <c r="AE199" s="5"/>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>106</v>
       </c>
@@ -12369,7 +12371,7 @@
       <c r="AD200" s="5"/>
       <c r="AE200" s="5"/>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>107</v>
       </c>
@@ -12424,7 +12426,7 @@
       <c r="AD201" s="5"/>
       <c r="AE201" s="5"/>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>108</v>
       </c>
@@ -12479,7 +12481,7 @@
       <c r="AD202" s="5"/>
       <c r="AE202" s="5"/>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>109</v>
       </c>
@@ -12534,7 +12536,7 @@
       <c r="AD203" s="5"/>
       <c r="AE203" s="5"/>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>110</v>
       </c>
@@ -12589,7 +12591,7 @@
       <c r="AD204" s="5"/>
       <c r="AE204" s="5"/>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>111</v>
       </c>
@@ -12644,7 +12646,7 @@
       <c r="AD205" s="5"/>
       <c r="AE205" s="5"/>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -12699,7 +12701,7 @@
       <c r="AD206" s="5"/>
       <c r="AE206" s="5"/>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>113</v>
       </c>
@@ -12754,7 +12756,7 @@
       <c r="AD207" s="5"/>
       <c r="AE207" s="5"/>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>114</v>
       </c>
@@ -12809,7 +12811,7 @@
       <c r="AD208" s="5"/>
       <c r="AE208" s="5"/>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>115</v>
       </c>
@@ -12864,7 +12866,7 @@
       <c r="AD209" s="5"/>
       <c r="AE209" s="5"/>
     </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>116</v>
       </c>
@@ -12919,7 +12921,7 @@
       <c r="AD210" s="5"/>
       <c r="AE210" s="5"/>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>117</v>
       </c>
@@ -12974,7 +12976,7 @@
       <c r="AD211" s="5"/>
       <c r="AE211" s="5"/>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>118</v>
       </c>
@@ -13029,7 +13031,7 @@
       <c r="AD212" s="5"/>
       <c r="AE212" s="5"/>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>100</v>
       </c>
@@ -13084,7 +13086,7 @@
       <c r="AD213" s="5"/>
       <c r="AE213" s="5"/>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>101</v>
       </c>
@@ -13139,7 +13141,7 @@
       <c r="AD214" s="5"/>
       <c r="AE214" s="5"/>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>103</v>
       </c>
@@ -13194,7 +13196,7 @@
       <c r="AD215" s="5"/>
       <c r="AE215" s="5"/>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>104</v>
       </c>
@@ -13249,7 +13251,7 @@
       <c r="AD216" s="5"/>
       <c r="AE216" s="5"/>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>105</v>
       </c>
@@ -13304,7 +13306,7 @@
       <c r="AD217" s="5"/>
       <c r="AE217" s="5"/>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>106</v>
       </c>
@@ -13359,7 +13361,7 @@
       <c r="AD218" s="5"/>
       <c r="AE218" s="5"/>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>119</v>
       </c>
@@ -13414,7 +13416,7 @@
       <c r="AD219" s="5"/>
       <c r="AE219" s="5"/>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>107</v>
       </c>
@@ -13469,7 +13471,7 @@
       <c r="AD220" s="5"/>
       <c r="AE220" s="5"/>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>108</v>
       </c>
@@ -13524,7 +13526,7 @@
       <c r="AD221" s="5"/>
       <c r="AE221" s="5"/>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>109</v>
       </c>
@@ -13579,7 +13581,7 @@
       <c r="AD222" s="5"/>
       <c r="AE222" s="5"/>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>120</v>
       </c>
@@ -13634,7 +13636,7 @@
       <c r="AD223" s="5"/>
       <c r="AE223" s="5"/>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>110</v>
       </c>
@@ -13689,7 +13691,7 @@
       <c r="AD224" s="5"/>
       <c r="AE224" s="5"/>
     </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>111</v>
       </c>
@@ -13744,7 +13746,7 @@
       <c r="AD225" s="5"/>
       <c r="AE225" s="5"/>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>112</v>
       </c>
@@ -13799,7 +13801,7 @@
       <c r="AD226" s="5"/>
       <c r="AE226" s="5"/>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>121</v>
       </c>
@@ -13854,7 +13856,7 @@
       <c r="AD227" s="5"/>
       <c r="AE227" s="5"/>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>122</v>
       </c>
@@ -13909,7 +13911,7 @@
       <c r="AD228" s="5"/>
       <c r="AE228" s="5"/>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>113</v>
       </c>
@@ -13964,7 +13966,7 @@
       <c r="AD229" s="5"/>
       <c r="AE229" s="5"/>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>114</v>
       </c>
@@ -14019,7 +14021,7 @@
       <c r="AD230" s="5"/>
       <c r="AE230" s="5"/>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>116</v>
       </c>
@@ -14074,7 +14076,7 @@
       <c r="AD231" s="5"/>
       <c r="AE231" s="5"/>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>117</v>
       </c>
@@ -14129,7 +14131,7 @@
       <c r="AD232" s="5"/>
       <c r="AE232" s="5"/>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>118</v>
       </c>
@@ -14184,7 +14186,7 @@
       <c r="AD233" s="5"/>
       <c r="AE233" s="5"/>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>100</v>
       </c>
@@ -14239,7 +14241,7 @@
       <c r="AD234" s="5"/>
       <c r="AE234" s="5"/>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>123</v>
       </c>
@@ -14294,7 +14296,7 @@
       <c r="AD235" s="5"/>
       <c r="AE235" s="5"/>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>101</v>
       </c>
@@ -14349,7 +14351,7 @@
       <c r="AD236" s="5"/>
       <c r="AE236" s="5"/>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>102</v>
       </c>
@@ -14404,7 +14406,7 @@
       <c r="AD237" s="5"/>
       <c r="AE237" s="5"/>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>103</v>
       </c>
@@ -14459,7 +14461,7 @@
       <c r="AD238" s="5"/>
       <c r="AE238" s="5"/>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>104</v>
       </c>
@@ -14514,7 +14516,7 @@
       <c r="AD239" s="5"/>
       <c r="AE239" s="5"/>
     </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>105</v>
       </c>
@@ -14569,7 +14571,7 @@
       <c r="AD240" s="5"/>
       <c r="AE240" s="5"/>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>106</v>
       </c>
@@ -14624,7 +14626,7 @@
       <c r="AD241" s="5"/>
       <c r="AE241" s="5"/>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>119</v>
       </c>
@@ -14679,7 +14681,7 @@
       <c r="AD242" s="5"/>
       <c r="AE242" s="5"/>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>107</v>
       </c>
@@ -14734,7 +14736,7 @@
       <c r="AD243" s="5"/>
       <c r="AE243" s="5"/>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>108</v>
       </c>
@@ -14789,7 +14791,7 @@
       <c r="AD244" s="5"/>
       <c r="AE244" s="5"/>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>109</v>
       </c>
@@ -14844,7 +14846,7 @@
       <c r="AD245" s="5"/>
       <c r="AE245" s="5"/>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>120</v>
       </c>
@@ -14899,7 +14901,7 @@
       <c r="AD246" s="5"/>
       <c r="AE246" s="5"/>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>110</v>
       </c>
@@ -14954,7 +14956,7 @@
       <c r="AD247" s="5"/>
       <c r="AE247" s="5"/>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>111</v>
       </c>
@@ -15009,7 +15011,7 @@
       <c r="AD248" s="5"/>
       <c r="AE248" s="5"/>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>112</v>
       </c>
@@ -15064,7 +15066,7 @@
       <c r="AD249" s="5"/>
       <c r="AE249" s="5"/>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>121</v>
       </c>
@@ -15119,7 +15121,7 @@
       <c r="AD250" s="5"/>
       <c r="AE250" s="5"/>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>122</v>
       </c>
@@ -15174,7 +15176,7 @@
       <c r="AD251" s="5"/>
       <c r="AE251" s="5"/>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>113</v>
       </c>
@@ -15229,7 +15231,7 @@
       <c r="AD252" s="5"/>
       <c r="AE252" s="5"/>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>114</v>
       </c>
@@ -15284,7 +15286,7 @@
       <c r="AD253" s="5"/>
       <c r="AE253" s="5"/>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>115</v>
       </c>
@@ -15339,7 +15341,7 @@
       <c r="AD254" s="5"/>
       <c r="AE254" s="5"/>
     </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>116</v>
       </c>
@@ -15394,7 +15396,7 @@
       <c r="AD255" s="5"/>
       <c r="AE255" s="5"/>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>117</v>
       </c>
@@ -15449,7 +15451,7 @@
       <c r="AD256" s="5"/>
       <c r="AE256" s="5"/>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>118</v>
       </c>
@@ -15504,7 +15506,7 @@
       <c r="AD257" s="5"/>
       <c r="AE257" s="5"/>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>125</v>
       </c>
@@ -15559,7 +15561,7 @@
       <c r="AD258" s="5"/>
       <c r="AE258" s="5"/>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>126</v>
       </c>
@@ -15614,7 +15616,7 @@
       <c r="AD259" s="5"/>
       <c r="AE259" s="5"/>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>127</v>
       </c>
@@ -15669,7 +15671,7 @@
       <c r="AD260" s="5"/>
       <c r="AE260" s="5"/>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>128</v>
       </c>
@@ -15724,7 +15726,7 @@
       <c r="AD261" s="5"/>
       <c r="AE261" s="5"/>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>129</v>
       </c>
@@ -15779,7 +15781,7 @@
       <c r="AD262" s="5"/>
       <c r="AE262" s="5"/>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>130</v>
       </c>
@@ -15834,7 +15836,7 @@
       <c r="AD263" s="5"/>
       <c r="AE263" s="5"/>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>131</v>
       </c>
@@ -15889,7 +15891,7 @@
       <c r="AD264" s="5"/>
       <c r="AE264" s="5"/>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>132</v>
       </c>
@@ -15944,7 +15946,7 @@
       <c r="AD265" s="5"/>
       <c r="AE265" s="5"/>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -15999,7 +16001,7 @@
       <c r="AD266" s="5"/>
       <c r="AE266" s="5"/>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>134</v>
       </c>
@@ -16054,7 +16056,7 @@
       <c r="AD267" s="5"/>
       <c r="AE267" s="5"/>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>135</v>
       </c>
@@ -16109,7 +16111,7 @@
       <c r="AD268" s="5"/>
       <c r="AE268" s="5"/>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>136</v>
       </c>
@@ -16164,7 +16166,7 @@
       <c r="AD269" s="5"/>
       <c r="AE269" s="5"/>
     </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>137</v>
       </c>
@@ -16219,7 +16221,7 @@
       <c r="AD270" s="5"/>
       <c r="AE270" s="5"/>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>138</v>
       </c>
@@ -16274,7 +16276,7 @@
       <c r="AD271" s="5"/>
       <c r="AE271" s="5"/>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>139</v>
       </c>
@@ -16329,7 +16331,7 @@
       <c r="AD272" s="5"/>
       <c r="AE272" s="5"/>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>140</v>
       </c>
@@ -16384,7 +16386,7 @@
       <c r="AD273" s="5"/>
       <c r="AE273" s="5"/>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>141</v>
       </c>
@@ -16439,7 +16441,7 @@
       <c r="AD274" s="5"/>
       <c r="AE274" s="5"/>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>142</v>
       </c>
@@ -16494,7 +16496,7 @@
       <c r="AD275" s="5"/>
       <c r="AE275" s="5"/>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>143</v>
       </c>
@@ -16549,7 +16551,7 @@
       <c r="AD276" s="5"/>
       <c r="AE276" s="5"/>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>144</v>
       </c>
@@ -16604,7 +16606,7 @@
       <c r="AD277" s="5"/>
       <c r="AE277" s="5"/>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>145</v>
       </c>
@@ -16659,7 +16661,7 @@
       <c r="AD278" s="5"/>
       <c r="AE278" s="5"/>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>146</v>
       </c>
@@ -16714,7 +16716,7 @@
       <c r="AD279" s="5"/>
       <c r="AE279" s="5"/>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>147</v>
       </c>
@@ -16769,7 +16771,7 @@
       <c r="AD280" s="5"/>
       <c r="AE280" s="5"/>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>148</v>
       </c>
@@ -16824,7 +16826,7 @@
       <c r="AD281" s="5"/>
       <c r="AE281" s="5"/>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>125</v>
       </c>
@@ -16879,7 +16881,7 @@
       <c r="AD282" s="5"/>
       <c r="AE282" s="5"/>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>126</v>
       </c>
@@ -16934,7 +16936,7 @@
       <c r="AD283" s="5"/>
       <c r="AE283" s="5"/>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>127</v>
       </c>
@@ -16989,7 +16991,7 @@
       <c r="AD284" s="5"/>
       <c r="AE284" s="5"/>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>128</v>
       </c>
@@ -17044,7 +17046,7 @@
       <c r="AD285" s="5"/>
       <c r="AE285" s="5"/>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>129</v>
       </c>
@@ -17099,7 +17101,7 @@
       <c r="AD286" s="5"/>
       <c r="AE286" s="5"/>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>130</v>
       </c>
@@ -17154,7 +17156,7 @@
       <c r="AD287" s="5"/>
       <c r="AE287" s="5"/>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>131</v>
       </c>
@@ -17209,7 +17211,7 @@
       <c r="AD288" s="5"/>
       <c r="AE288" s="5"/>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>132</v>
       </c>
@@ -17264,7 +17266,7 @@
       <c r="AD289" s="5"/>
       <c r="AE289" s="5"/>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>133</v>
       </c>
@@ -17319,7 +17321,7 @@
       <c r="AD290" s="5"/>
       <c r="AE290" s="5"/>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>134</v>
       </c>
@@ -17374,7 +17376,7 @@
       <c r="AD291" s="5"/>
       <c r="AE291" s="5"/>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>135</v>
       </c>
@@ -17429,7 +17431,7 @@
       <c r="AD292" s="5"/>
       <c r="AE292" s="5"/>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>137</v>
       </c>
@@ -17484,7 +17486,7 @@
       <c r="AD293" s="5"/>
       <c r="AE293" s="5"/>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>138</v>
       </c>
@@ -17539,7 +17541,7 @@
       <c r="AD294" s="5"/>
       <c r="AE294" s="5"/>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>139</v>
       </c>
@@ -17594,7 +17596,7 @@
       <c r="AD295" s="5"/>
       <c r="AE295" s="5"/>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>140</v>
       </c>
@@ -17649,7 +17651,7 @@
       <c r="AD296" s="5"/>
       <c r="AE296" s="5"/>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>144</v>
       </c>
@@ -17704,7 +17706,7 @@
       <c r="AD297" s="5"/>
       <c r="AE297" s="5"/>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>125</v>
       </c>
@@ -17759,7 +17761,7 @@
       <c r="AD298" s="5"/>
       <c r="AE298" s="5"/>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>126</v>
       </c>
@@ -17814,7 +17816,7 @@
       <c r="AD299" s="5"/>
       <c r="AE299" s="5"/>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>127</v>
       </c>
@@ -17869,7 +17871,7 @@
       <c r="AD300" s="5"/>
       <c r="AE300" s="5"/>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>128</v>
       </c>
@@ -17924,7 +17926,7 @@
       <c r="AD301" s="5"/>
       <c r="AE301" s="5"/>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>129</v>
       </c>
@@ -17979,7 +17981,7 @@
       <c r="AD302" s="5"/>
       <c r="AE302" s="5"/>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>130</v>
       </c>
@@ -18034,7 +18036,7 @@
       <c r="AD303" s="5"/>
       <c r="AE303" s="5"/>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -18089,7 +18091,7 @@
       <c r="AD304" s="5"/>
       <c r="AE304" s="5"/>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -18144,7 +18146,7 @@
       <c r="AD305" s="5"/>
       <c r="AE305" s="5"/>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>134</v>
       </c>
@@ -18199,7 +18201,7 @@
       <c r="AD306" s="5"/>
       <c r="AE306" s="5"/>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>135</v>
       </c>
@@ -18254,7 +18256,7 @@
       <c r="AD307" s="5"/>
       <c r="AE307" s="5"/>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>136</v>
       </c>
@@ -18309,7 +18311,7 @@
       <c r="AD308" s="5"/>
       <c r="AE308" s="5"/>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>137</v>
       </c>
@@ -18364,7 +18366,7 @@
       <c r="AD309" s="5"/>
       <c r="AE309" s="5"/>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>138</v>
       </c>
@@ -18419,7 +18421,7 @@
       <c r="AD310" s="5"/>
       <c r="AE310" s="5"/>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>139</v>
       </c>
@@ -18474,7 +18476,7 @@
       <c r="AD311" s="5"/>
       <c r="AE311" s="5"/>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>140</v>
       </c>
@@ -18529,7 +18531,7 @@
       <c r="AD312" s="5"/>
       <c r="AE312" s="5"/>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>141</v>
       </c>
@@ -18584,7 +18586,7 @@
       <c r="AD313" s="5"/>
       <c r="AE313" s="5"/>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>142</v>
       </c>
@@ -18639,7 +18641,7 @@
       <c r="AD314" s="5"/>
       <c r="AE314" s="5"/>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>144</v>
       </c>
@@ -18694,7 +18696,7 @@
       <c r="AD315" s="5"/>
       <c r="AE315" s="5"/>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>145</v>
       </c>
@@ -18749,7 +18751,7 @@
       <c r="AD316" s="5"/>
       <c r="AE316" s="5"/>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>146</v>
       </c>
@@ -18804,7 +18806,7 @@
       <c r="AD317" s="5"/>
       <c r="AE317" s="5"/>
     </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>147</v>
       </c>
@@ -18859,7 +18861,7 @@
       <c r="AD318" s="5"/>
       <c r="AE318" s="5"/>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>148</v>
       </c>
@@ -18914,7 +18916,7 @@
       <c r="AD319" s="5"/>
       <c r="AE319" s="5"/>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>150</v>
       </c>
@@ -18969,7 +18971,7 @@
       <c r="AD320" s="5"/>
       <c r="AE320" s="5"/>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>151</v>
       </c>
@@ -19024,7 +19026,7 @@
       <c r="AD321" s="5"/>
       <c r="AE321" s="5"/>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>152</v>
       </c>
@@ -19079,7 +19081,7 @@
       <c r="AD322" s="5"/>
       <c r="AE322" s="5"/>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>153</v>
       </c>
@@ -19134,7 +19136,7 @@
       <c r="AD323" s="5"/>
       <c r="AE323" s="5"/>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>154</v>
       </c>
@@ -19189,7 +19191,7 @@
       <c r="AD324" s="5"/>
       <c r="AE324" s="5"/>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>155</v>
       </c>
@@ -19244,7 +19246,7 @@
       <c r="AD325" s="5"/>
       <c r="AE325" s="5"/>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -19299,7 +19301,7 @@
       <c r="AD326" s="5"/>
       <c r="AE326" s="5"/>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>157</v>
       </c>
@@ -19354,7 +19356,7 @@
       <c r="AD327" s="5"/>
       <c r="AE327" s="5"/>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>158</v>
       </c>
@@ -19409,7 +19411,7 @@
       <c r="AD328" s="5"/>
       <c r="AE328" s="5"/>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>159</v>
       </c>
@@ -19464,7 +19466,7 @@
       <c r="AD329" s="5"/>
       <c r="AE329" s="5"/>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>160</v>
       </c>
@@ -19519,7 +19521,7 @@
       <c r="AD330" s="5"/>
       <c r="AE330" s="5"/>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>161</v>
       </c>
@@ -19574,7 +19576,7 @@
       <c r="AD331" s="5"/>
       <c r="AE331" s="5"/>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>162</v>
       </c>
@@ -19629,7 +19631,7 @@
       <c r="AD332" s="5"/>
       <c r="AE332" s="5"/>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>163</v>
       </c>
@@ -19684,7 +19686,7 @@
       <c r="AD333" s="5"/>
       <c r="AE333" s="5"/>
     </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>164</v>
       </c>
@@ -19739,7 +19741,7 @@
       <c r="AD334" s="5"/>
       <c r="AE334" s="5"/>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>165</v>
       </c>
@@ -19794,7 +19796,7 @@
       <c r="AD335" s="5"/>
       <c r="AE335" s="5"/>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>166</v>
       </c>
@@ -19849,7 +19851,7 @@
       <c r="AD336" s="5"/>
       <c r="AE336" s="5"/>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>167</v>
       </c>
@@ -19904,7 +19906,7 @@
       <c r="AD337" s="5"/>
       <c r="AE337" s="5"/>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>168</v>
       </c>
@@ -19959,7 +19961,7 @@
       <c r="AD338" s="5"/>
       <c r="AE338" s="5"/>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>169</v>
       </c>
@@ -20014,7 +20016,7 @@
       <c r="AD339" s="5"/>
       <c r="AE339" s="5"/>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>170</v>
       </c>
@@ -20069,7 +20071,7 @@
       <c r="AD340" s="5"/>
       <c r="AE340" s="5"/>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>171</v>
       </c>
@@ -20124,7 +20126,7 @@
       <c r="AD341" s="5"/>
       <c r="AE341" s="5"/>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>172</v>
       </c>
@@ -20179,7 +20181,7 @@
       <c r="AD342" s="5"/>
       <c r="AE342" s="5"/>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>173</v>
       </c>
@@ -20234,7 +20236,7 @@
       <c r="AD343" s="5"/>
       <c r="AE343" s="5"/>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>173</v>
       </c>
@@ -20289,7 +20291,7 @@
       <c r="AD344" s="5"/>
       <c r="AE344" s="5"/>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>173</v>
       </c>
@@ -20344,7 +20346,7 @@
       <c r="AD345" s="5"/>
       <c r="AE345" s="5"/>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>150</v>
       </c>
@@ -20399,7 +20401,7 @@
       <c r="AD346" s="5"/>
       <c r="AE346" s="5"/>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>151</v>
       </c>
@@ -20454,7 +20456,7 @@
       <c r="AD347" s="5"/>
       <c r="AE347" s="5"/>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>152</v>
       </c>
@@ -20509,7 +20511,7 @@
       <c r="AD348" s="5"/>
       <c r="AE348" s="5"/>
     </row>
-    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>153</v>
       </c>
@@ -20564,7 +20566,7 @@
       <c r="AD349" s="5"/>
       <c r="AE349" s="5"/>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>154</v>
       </c>
@@ -20619,7 +20621,7 @@
       <c r="AD350" s="5"/>
       <c r="AE350" s="5"/>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>155</v>
       </c>
@@ -20674,7 +20676,7 @@
       <c r="AD351" s="5"/>
       <c r="AE351" s="5"/>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -20729,7 +20731,7 @@
       <c r="AD352" s="5"/>
       <c r="AE352" s="5"/>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>157</v>
       </c>
@@ -20784,7 +20786,7 @@
       <c r="AD353" s="5"/>
       <c r="AE353" s="5"/>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>158</v>
       </c>
@@ -20839,7 +20841,7 @@
       <c r="AD354" s="5"/>
       <c r="AE354" s="5"/>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>159</v>
       </c>
@@ -20894,7 +20896,7 @@
       <c r="AD355" s="5"/>
       <c r="AE355" s="5"/>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>160</v>
       </c>
@@ -20949,7 +20951,7 @@
       <c r="AD356" s="5"/>
       <c r="AE356" s="5"/>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>161</v>
       </c>
@@ -21004,7 +21006,7 @@
       <c r="AD357" s="5"/>
       <c r="AE357" s="5"/>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>162</v>
       </c>
@@ -21059,7 +21061,7 @@
       <c r="AD358" s="5"/>
       <c r="AE358" s="5"/>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>163</v>
       </c>
@@ -21114,7 +21116,7 @@
       <c r="AD359" s="5"/>
       <c r="AE359" s="5"/>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>164</v>
       </c>
@@ -21169,7 +21171,7 @@
       <c r="AD360" s="5"/>
       <c r="AE360" s="5"/>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>165</v>
       </c>
@@ -21224,7 +21226,7 @@
       <c r="AD361" s="5"/>
       <c r="AE361" s="5"/>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>166</v>
       </c>
@@ -21279,7 +21281,7 @@
       <c r="AD362" s="5"/>
       <c r="AE362" s="5"/>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>167</v>
       </c>
@@ -21334,7 +21336,7 @@
       <c r="AD363" s="5"/>
       <c r="AE363" s="5"/>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>168</v>
       </c>
@@ -21389,7 +21391,7 @@
       <c r="AD364" s="5"/>
       <c r="AE364" s="5"/>
     </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>169</v>
       </c>
@@ -21444,7 +21446,7 @@
       <c r="AD365" s="5"/>
       <c r="AE365" s="5"/>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>170</v>
       </c>
@@ -21499,7 +21501,7 @@
       <c r="AD366" s="5"/>
       <c r="AE366" s="5"/>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>171</v>
       </c>
@@ -21554,7 +21556,7 @@
       <c r="AD367" s="5"/>
       <c r="AE367" s="5"/>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>172</v>
       </c>
@@ -21609,7 +21611,7 @@
       <c r="AD368" s="5"/>
       <c r="AE368" s="5"/>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>173</v>
       </c>
@@ -21664,7 +21666,7 @@
       <c r="AD369" s="5"/>
       <c r="AE369" s="5"/>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>175</v>
       </c>
@@ -21719,7 +21721,7 @@
       <c r="AD370" s="5"/>
       <c r="AE370" s="5"/>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>176</v>
       </c>
@@ -21774,7 +21776,7 @@
       <c r="AD371" s="5"/>
       <c r="AE371" s="5"/>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>177</v>
       </c>
@@ -21829,7 +21831,7 @@
       <c r="AD372" s="5"/>
       <c r="AE372" s="5"/>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>178</v>
       </c>
@@ -21884,7 +21886,7 @@
       <c r="AD373" s="5"/>
       <c r="AE373" s="5"/>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>179</v>
       </c>
@@ -21939,7 +21941,7 @@
       <c r="AD374" s="5"/>
       <c r="AE374" s="5"/>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>180</v>
       </c>
@@ -21994,7 +21996,7 @@
       <c r="AD375" s="5"/>
       <c r="AE375" s="5"/>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>181</v>
       </c>
@@ -22049,7 +22051,7 @@
       <c r="AD376" s="5"/>
       <c r="AE376" s="5"/>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>182</v>
       </c>
@@ -22104,7 +22106,7 @@
       <c r="AD377" s="5"/>
       <c r="AE377" s="5"/>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>183</v>
       </c>
@@ -22159,7 +22161,7 @@
       <c r="AD378" s="5"/>
       <c r="AE378" s="5"/>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>184</v>
       </c>
@@ -22214,7 +22216,7 @@
       <c r="AD379" s="5"/>
       <c r="AE379" s="5"/>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>185</v>
       </c>
@@ -22269,7 +22271,7 @@
       <c r="AD380" s="5"/>
       <c r="AE380" s="5"/>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>186</v>
       </c>
@@ -22324,7 +22326,7 @@
       <c r="AD381" s="5"/>
       <c r="AE381" s="5"/>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>187</v>
       </c>
@@ -22379,7 +22381,7 @@
       <c r="AD382" s="5"/>
       <c r="AE382" s="5"/>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>188</v>
       </c>
@@ -22434,7 +22436,7 @@
       <c r="AD383" s="5"/>
       <c r="AE383" s="5"/>
     </row>
-    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>189</v>
       </c>
@@ -22489,7 +22491,7 @@
       <c r="AD384" s="5"/>
       <c r="AE384" s="5"/>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>190</v>
       </c>
@@ -22544,7 +22546,7 @@
       <c r="AD385" s="5"/>
       <c r="AE385" s="5"/>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>191</v>
       </c>
@@ -22599,7 +22601,7 @@
       <c r="AD386" s="5"/>
       <c r="AE386" s="5"/>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>192</v>
       </c>
@@ -22654,7 +22656,7 @@
       <c r="AD387" s="5"/>
       <c r="AE387" s="5"/>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>193</v>
       </c>
@@ -22709,7 +22711,7 @@
       <c r="AD388" s="5"/>
       <c r="AE388" s="5"/>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>194</v>
       </c>
@@ -22764,7 +22766,7 @@
       <c r="AD389" s="5"/>
       <c r="AE389" s="5"/>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>195</v>
       </c>
@@ -22819,7 +22821,7 @@
       <c r="AD390" s="5"/>
       <c r="AE390" s="5"/>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>175</v>
       </c>
@@ -22874,7 +22876,7 @@
       <c r="AD391" s="5"/>
       <c r="AE391" s="5"/>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>176</v>
       </c>
@@ -22929,7 +22931,7 @@
       <c r="AD392" s="5"/>
       <c r="AE392" s="5"/>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>177</v>
       </c>
@@ -22984,7 +22986,7 @@
       <c r="AD393" s="5"/>
       <c r="AE393" s="5"/>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>196</v>
       </c>
@@ -23039,7 +23041,7 @@
       <c r="AD394" s="5"/>
       <c r="AE394" s="5"/>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>180</v>
       </c>
@@ -23094,7 +23096,7 @@
       <c r="AD395" s="5"/>
       <c r="AE395" s="5"/>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>181</v>
       </c>
@@ -23149,7 +23151,7 @@
       <c r="AD396" s="5"/>
       <c r="AE396" s="5"/>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>183</v>
       </c>
@@ -23204,7 +23206,7 @@
       <c r="AD397" s="5"/>
       <c r="AE397" s="5"/>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>184</v>
       </c>
@@ -23259,7 +23261,7 @@
       <c r="AD398" s="5"/>
       <c r="AE398" s="5"/>
     </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>185</v>
       </c>
@@ -23314,7 +23316,7 @@
       <c r="AD399" s="5"/>
       <c r="AE399" s="5"/>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>186</v>
       </c>
@@ -23369,7 +23371,7 @@
       <c r="AD400" s="5"/>
       <c r="AE400" s="5"/>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>188</v>
       </c>
@@ -23424,7 +23426,7 @@
       <c r="AD401" s="5"/>
       <c r="AE401" s="5"/>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>197</v>
       </c>
@@ -23479,7 +23481,7 @@
       <c r="AD402" s="5"/>
       <c r="AE402" s="5"/>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>192</v>
       </c>
@@ -23534,7 +23536,7 @@
       <c r="AD403" s="5"/>
       <c r="AE403" s="5"/>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>199</v>
       </c>
@@ -23589,7 +23591,7 @@
       <c r="AD404" s="5"/>
       <c r="AE404" s="5"/>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>200</v>
       </c>
@@ -23644,7 +23646,7 @@
       <c r="AD405" s="5"/>
       <c r="AE405" s="5"/>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>201</v>
       </c>
@@ -23699,7 +23701,7 @@
       <c r="AD406" s="5"/>
       <c r="AE406" s="5"/>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>202</v>
       </c>
@@ -23754,7 +23756,7 @@
       <c r="AD407" s="5"/>
       <c r="AE407" s="5"/>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>203</v>
       </c>
@@ -23809,7 +23811,7 @@
       <c r="AD408" s="5"/>
       <c r="AE408" s="5"/>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>204</v>
       </c>
@@ -23864,7 +23866,7 @@
       <c r="AD409" s="5"/>
       <c r="AE409" s="5"/>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>205</v>
       </c>
@@ -23919,7 +23921,7 @@
       <c r="AD410" s="5"/>
       <c r="AE410" s="5"/>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>206</v>
       </c>
@@ -23974,7 +23976,7 @@
       <c r="AD411" s="5"/>
       <c r="AE411" s="5"/>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>207</v>
       </c>
@@ -24029,7 +24031,7 @@
       <c r="AD412" s="5"/>
       <c r="AE412" s="5"/>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>208</v>
       </c>
@@ -24084,7 +24086,7 @@
       <c r="AD413" s="5"/>
       <c r="AE413" s="5"/>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>209</v>
       </c>
@@ -24139,7 +24141,7 @@
       <c r="AD414" s="5"/>
       <c r="AE414" s="5"/>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>210</v>
       </c>
@@ -24194,7 +24196,7 @@
       <c r="AD415" s="5"/>
       <c r="AE415" s="5"/>
     </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>211</v>
       </c>
@@ -24249,7 +24251,7 @@
       <c r="AD416" s="5"/>
       <c r="AE416" s="5"/>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>212</v>
       </c>
@@ -24304,7 +24306,7 @@
       <c r="AD417" s="5"/>
       <c r="AE417" s="5"/>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>213</v>
       </c>
@@ -24359,7 +24361,7 @@
       <c r="AD418" s="5"/>
       <c r="AE418" s="5"/>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>214</v>
       </c>
@@ -24414,7 +24416,7 @@
       <c r="AD419" s="5"/>
       <c r="AE419" s="5"/>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>215</v>
       </c>
@@ -24469,7 +24471,7 @@
       <c r="AD420" s="5"/>
       <c r="AE420" s="5"/>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>216</v>
       </c>
@@ -24524,7 +24526,7 @@
       <c r="AD421" s="5"/>
       <c r="AE421" s="5"/>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>217</v>
       </c>
@@ -24579,7 +24581,7 @@
       <c r="AD422" s="5"/>
       <c r="AE422" s="5"/>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -24634,7 +24636,7 @@
       <c r="AD423" s="5"/>
       <c r="AE423" s="5"/>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>218</v>
       </c>
@@ -24689,7 +24691,7 @@
       <c r="AD424" s="5"/>
       <c r="AE424" s="5"/>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>219</v>
       </c>
@@ -24744,7 +24746,7 @@
       <c r="AD425" s="5"/>
       <c r="AE425" s="5"/>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>220</v>
       </c>
@@ -24799,7 +24801,7 @@
       <c r="AD426" s="5"/>
       <c r="AE426" s="5"/>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>221</v>
       </c>
@@ -24854,7 +24856,7 @@
       <c r="AD427" s="5"/>
       <c r="AE427" s="5"/>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>199</v>
       </c>
@@ -24909,7 +24911,7 @@
       <c r="AD428" s="5"/>
       <c r="AE428" s="5"/>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>200</v>
       </c>
@@ -24964,7 +24966,7 @@
       <c r="AD429" s="5"/>
       <c r="AE429" s="5"/>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>201</v>
       </c>
@@ -25019,7 +25021,7 @@
       <c r="AD430" s="5"/>
       <c r="AE430" s="5"/>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>202</v>
       </c>
@@ -25074,7 +25076,7 @@
       <c r="AD431" s="5"/>
       <c r="AE431" s="5"/>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>203</v>
       </c>
@@ -25129,7 +25131,7 @@
       <c r="AD432" s="5"/>
       <c r="AE432" s="5"/>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>204</v>
       </c>
@@ -25184,7 +25186,7 @@
       <c r="AD433" s="5"/>
       <c r="AE433" s="5"/>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>205</v>
       </c>
@@ -25239,7 +25241,7 @@
       <c r="AD434" s="5"/>
       <c r="AE434" s="5"/>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>206</v>
       </c>
@@ -25294,7 +25296,7 @@
       <c r="AD435" s="5"/>
       <c r="AE435" s="5"/>
     </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>207</v>
       </c>
@@ -25349,7 +25351,7 @@
       <c r="AD436" s="5"/>
       <c r="AE436" s="5"/>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>208</v>
       </c>
@@ -25404,7 +25406,7 @@
       <c r="AD437" s="5"/>
       <c r="AE437" s="5"/>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>209</v>
       </c>
@@ -25459,7 +25461,7 @@
       <c r="AD438" s="5"/>
       <c r="AE438" s="5"/>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>222</v>
       </c>
@@ -25514,7 +25516,7 @@
       <c r="AD439" s="5"/>
       <c r="AE439" s="5"/>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>222</v>
       </c>
@@ -25569,7 +25571,7 @@
       <c r="AD440" s="5"/>
       <c r="AE440" s="5"/>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>210</v>
       </c>
@@ -25624,7 +25626,7 @@
       <c r="AD441" s="5"/>
       <c r="AE441" s="5"/>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>211</v>
       </c>
@@ -25679,7 +25681,7 @@
       <c r="AD442" s="5"/>
       <c r="AE442" s="5"/>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>212</v>
       </c>
@@ -25734,7 +25736,7 @@
       <c r="AD443" s="5"/>
       <c r="AE443" s="5"/>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>213</v>
       </c>
@@ -25789,7 +25791,7 @@
       <c r="AD444" s="5"/>
       <c r="AE444" s="5"/>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>214</v>
       </c>
@@ -25844,7 +25846,7 @@
       <c r="AD445" s="5"/>
       <c r="AE445" s="5"/>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>215</v>
       </c>
@@ -25899,7 +25901,7 @@
       <c r="AD446" s="5"/>
       <c r="AE446" s="5"/>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>216</v>
       </c>
@@ -25954,7 +25956,7 @@
       <c r="AD447" s="5"/>
       <c r="AE447" s="5"/>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>217</v>
       </c>
@@ -26009,7 +26011,7 @@
       <c r="AD448" s="5"/>
       <c r="AE448" s="5"/>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>218</v>
       </c>
@@ -26064,7 +26066,7 @@
       <c r="AD449" s="5"/>
       <c r="AE449" s="5"/>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>219</v>
       </c>
@@ -26119,7 +26121,7 @@
       <c r="AD450" s="5"/>
       <c r="AE450" s="5"/>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>220</v>
       </c>
@@ -26174,7 +26176,7 @@
       <c r="AD451" s="5"/>
       <c r="AE451" s="5"/>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>221</v>
       </c>
@@ -26229,7 +26231,7 @@
       <c r="AD452" s="5"/>
       <c r="AE452" s="5"/>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>225</v>
       </c>
@@ -26284,7 +26286,7 @@
       <c r="AD453" s="5"/>
       <c r="AE453" s="5"/>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>226</v>
       </c>
@@ -26339,7 +26341,7 @@
       <c r="AD454" s="5"/>
       <c r="AE454" s="5"/>
     </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>227</v>
       </c>
@@ -26394,7 +26396,7 @@
       <c r="AD455" s="5"/>
       <c r="AE455" s="5"/>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>228</v>
       </c>
@@ -26449,7 +26451,7 @@
       <c r="AD456" s="5"/>
       <c r="AE456" s="5"/>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>229</v>
       </c>
@@ -26504,7 +26506,7 @@
       <c r="AD457" s="5"/>
       <c r="AE457" s="5"/>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>230</v>
       </c>
@@ -26559,7 +26561,7 @@
       <c r="AD458" s="5"/>
       <c r="AE458" s="5"/>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>231</v>
       </c>
@@ -26614,7 +26616,7 @@
       <c r="AD459" s="5"/>
       <c r="AE459" s="5"/>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>232</v>
       </c>
@@ -26669,7 +26671,7 @@
       <c r="AD460" s="5"/>
       <c r="AE460" s="5"/>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>233</v>
       </c>
@@ -26724,7 +26726,7 @@
       <c r="AD461" s="5"/>
       <c r="AE461" s="5"/>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>234</v>
       </c>
@@ -26779,7 +26781,7 @@
       <c r="AD462" s="5"/>
       <c r="AE462" s="5"/>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>235</v>
       </c>
@@ -26834,7 +26836,7 @@
       <c r="AD463" s="5"/>
       <c r="AE463" s="5"/>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>236</v>
       </c>
@@ -26889,7 +26891,7 @@
       <c r="AD464" s="5"/>
       <c r="AE464" s="5"/>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>237</v>
       </c>
@@ -26944,7 +26946,7 @@
       <c r="AD465" s="5"/>
       <c r="AE465" s="5"/>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>238</v>
       </c>
@@ -26999,7 +27001,7 @@
       <c r="AD466" s="5"/>
       <c r="AE466" s="5"/>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>239</v>
       </c>
@@ -27054,7 +27056,7 @@
       <c r="AD467" s="5"/>
       <c r="AE467" s="5"/>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>240</v>
       </c>
@@ -27109,7 +27111,7 @@
       <c r="AD468" s="5"/>
       <c r="AE468" s="5"/>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>241</v>
       </c>
@@ -27164,7 +27166,7 @@
       <c r="AD469" s="5"/>
       <c r="AE469" s="5"/>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>242</v>
       </c>
@@ -27219,7 +27221,7 @@
       <c r="AD470" s="5"/>
       <c r="AE470" s="5"/>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>243</v>
       </c>
@@ -27274,7 +27276,7 @@
       <c r="AD471" s="5"/>
       <c r="AE471" s="5"/>
     </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>244</v>
       </c>
@@ -27329,7 +27331,7 @@
       <c r="AD472" s="5"/>
       <c r="AE472" s="5"/>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>245</v>
       </c>
@@ -27384,7 +27386,7 @@
       <c r="AD473" s="5"/>
       <c r="AE473" s="5"/>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>246</v>
       </c>
@@ -27439,7 +27441,7 @@
       <c r="AD474" s="5"/>
       <c r="AE474" s="5"/>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>225</v>
       </c>
@@ -27494,7 +27496,7 @@
       <c r="AD475" s="5"/>
       <c r="AE475" s="5"/>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>227</v>
       </c>
@@ -27549,7 +27551,7 @@
       <c r="AD476" s="5"/>
       <c r="AE476" s="5"/>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>228</v>
       </c>
@@ -27604,7 +27606,7 @@
       <c r="AD477" s="5"/>
       <c r="AE477" s="5"/>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>229</v>
       </c>
@@ -27659,7 +27661,7 @@
       <c r="AD478" s="5"/>
       <c r="AE478" s="5"/>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>230</v>
       </c>
@@ -27714,7 +27716,7 @@
       <c r="AD479" s="5"/>
       <c r="AE479" s="5"/>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>231</v>
       </c>
@@ -27769,7 +27771,7 @@
       <c r="AD480" s="5"/>
       <c r="AE480" s="5"/>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>232</v>
       </c>
@@ -27824,7 +27826,7 @@
       <c r="AD481" s="5"/>
       <c r="AE481" s="5"/>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>247</v>
       </c>
@@ -27879,7 +27881,7 @@
       <c r="AD482" s="5"/>
       <c r="AE482" s="5"/>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>233</v>
       </c>
@@ -27934,7 +27936,7 @@
       <c r="AD483" s="5"/>
       <c r="AE483" s="5"/>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>248</v>
       </c>
@@ -27989,7 +27991,7 @@
       <c r="AD484" s="5"/>
       <c r="AE484" s="5"/>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>234</v>
       </c>
@@ -28044,7 +28046,7 @@
       <c r="AD485" s="5"/>
       <c r="AE485" s="5"/>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>235</v>
       </c>
@@ -28099,7 +28101,7 @@
       <c r="AD486" s="5"/>
       <c r="AE486" s="5"/>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>236</v>
       </c>
@@ -28154,7 +28156,7 @@
       <c r="AD487" s="5"/>
       <c r="AE487" s="5"/>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>237</v>
       </c>
@@ -28209,7 +28211,7 @@
       <c r="AD488" s="5"/>
       <c r="AE488" s="5"/>
     </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>238</v>
       </c>
@@ -28264,7 +28266,7 @@
       <c r="AD489" s="5"/>
       <c r="AE489" s="5"/>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>239</v>
       </c>
@@ -28319,7 +28321,7 @@
       <c r="AD490" s="5"/>
       <c r="AE490" s="5"/>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>240</v>
       </c>
@@ -28374,7 +28376,7 @@
       <c r="AD491" s="5"/>
       <c r="AE491" s="5"/>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>241</v>
       </c>
@@ -28429,7 +28431,7 @@
       <c r="AD492" s="5"/>
       <c r="AE492" s="5"/>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>242</v>
       </c>
@@ -28484,7 +28486,7 @@
       <c r="AD493" s="5"/>
       <c r="AE493" s="5"/>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>243</v>
       </c>
@@ -28539,7 +28541,7 @@
       <c r="AD494" s="5"/>
       <c r="AE494" s="5"/>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>244</v>
       </c>
@@ -28594,7 +28596,7 @@
       <c r="AD495" s="5"/>
       <c r="AE495" s="5"/>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>246</v>
       </c>
@@ -28649,7 +28651,7 @@
       <c r="AD496" s="5"/>
       <c r="AE496" s="5"/>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>249</v>
       </c>
@@ -28704,7 +28706,7 @@
       <c r="AD497" s="5"/>
       <c r="AE497" s="5"/>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>27</v>
       </c>
@@ -28759,7 +28761,7 @@
       <c r="AD498" s="5"/>
       <c r="AE498" s="5"/>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>28</v>
       </c>
@@ -28814,7 +28816,7 @@
       <c r="AD499" s="5"/>
       <c r="AE499" s="5"/>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>29</v>
       </c>
@@ -28869,7 +28871,7 @@
       <c r="AD500" s="5"/>
       <c r="AE500" s="5"/>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>30</v>
       </c>
@@ -28924,7 +28926,7 @@
       <c r="AD501" s="5"/>
       <c r="AE501" s="5"/>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>31</v>
       </c>
@@ -28979,7 +28981,7 @@
       <c r="AD502" s="5"/>
       <c r="AE502" s="5"/>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>32</v>
       </c>
@@ -29034,7 +29036,7 @@
       <c r="AD503" s="5"/>
       <c r="AE503" s="5"/>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>33</v>
       </c>
@@ -29089,7 +29091,7 @@
       <c r="AD504" s="5"/>
       <c r="AE504" s="5"/>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>34</v>
       </c>
@@ -29144,7 +29146,7 @@
       <c r="AD505" s="5"/>
       <c r="AE505" s="5"/>
     </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>35</v>
       </c>
@@ -29199,7 +29201,7 @@
       <c r="AD506" s="5"/>
       <c r="AE506" s="5"/>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>36</v>
       </c>
@@ -29254,7 +29256,7 @@
       <c r="AD507" s="5"/>
       <c r="AE507" s="5"/>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>37</v>
       </c>
@@ -29309,7 +29311,7 @@
       <c r="AD508" s="5"/>
       <c r="AE508" s="5"/>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>38</v>
       </c>
@@ -29364,7 +29366,7 @@
       <c r="AD509" s="5"/>
       <c r="AE509" s="5"/>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>39</v>
       </c>
@@ -29419,7 +29421,7 @@
       <c r="AD510" s="5"/>
       <c r="AE510" s="5"/>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>40</v>
       </c>
@@ -29474,7 +29476,7 @@
       <c r="AD511" s="5"/>
       <c r="AE511" s="5"/>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>41</v>
       </c>
@@ -29529,7 +29531,7 @@
       <c r="AD512" s="5"/>
       <c r="AE512" s="5"/>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>42</v>
       </c>
@@ -29584,7 +29586,7 @@
       <c r="AD513" s="5"/>
       <c r="AE513" s="5"/>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>43</v>
       </c>
@@ -29639,7 +29641,7 @@
       <c r="AD514" s="5"/>
       <c r="AE514" s="5"/>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>44</v>
       </c>
@@ -29694,7 +29696,7 @@
       <c r="AD515" s="5"/>
       <c r="AE515" s="5"/>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>45</v>
       </c>
@@ -29749,7 +29751,7 @@
       <c r="AD516" s="5"/>
       <c r="AE516" s="5"/>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>46</v>
       </c>
@@ -29804,7 +29806,7 @@
       <c r="AD517" s="5"/>
       <c r="AE517" s="5"/>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>49</v>
       </c>
@@ -29859,7 +29861,7 @@
       <c r="AD518" s="5"/>
       <c r="AE518" s="5"/>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>47</v>
       </c>
@@ -29914,7 +29916,7 @@
       <c r="AD519" s="5"/>
       <c r="AE519" s="5"/>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>48</v>
       </c>
@@ -29969,7 +29971,7 @@
       <c r="AD520" s="5"/>
       <c r="AE520" s="5"/>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>249</v>
       </c>
@@ -30024,7 +30026,7 @@
       <c r="AD521" s="5"/>
       <c r="AE521" s="5"/>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>27</v>
       </c>
@@ -30079,7 +30081,7 @@
       <c r="AD522" s="5"/>
       <c r="AE522" s="5"/>
     </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>28</v>
       </c>
@@ -30134,7 +30136,7 @@
       <c r="AD523" s="5"/>
       <c r="AE523" s="5"/>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>29</v>
       </c>
@@ -30189,7 +30191,7 @@
       <c r="AD524" s="5"/>
       <c r="AE524" s="5"/>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>30</v>
       </c>
@@ -30244,7 +30246,7 @@
       <c r="AD525" s="5"/>
       <c r="AE525" s="5"/>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>31</v>
       </c>
@@ -30299,7 +30301,7 @@
       <c r="AD526" s="5"/>
       <c r="AE526" s="5"/>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>32</v>
       </c>
@@ -30354,7 +30356,7 @@
       <c r="AD527" s="5"/>
       <c r="AE527" s="5"/>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>33</v>
       </c>
@@ -30409,7 +30411,7 @@
       <c r="AD528" s="5"/>
       <c r="AE528" s="5"/>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>34</v>
       </c>
@@ -30464,7 +30466,7 @@
       <c r="AD529" s="5"/>
       <c r="AE529" s="5"/>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>35</v>
       </c>
@@ -30519,7 +30521,7 @@
       <c r="AD530" s="5"/>
       <c r="AE530" s="5"/>
     </row>
-    <row r="531" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>36</v>
       </c>
@@ -30574,7 +30576,7 @@
       <c r="AD531" s="5"/>
       <c r="AE531" s="5"/>
     </row>
-    <row r="532" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>37</v>
       </c>
@@ -30629,7 +30631,7 @@
       <c r="AD532" s="5"/>
       <c r="AE532" s="5"/>
     </row>
-    <row r="533" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>38</v>
       </c>
@@ -30684,7 +30686,7 @@
       <c r="AD533" s="5"/>
       <c r="AE533" s="5"/>
     </row>
-    <row r="534" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>39</v>
       </c>
@@ -30739,7 +30741,7 @@
       <c r="AD534" s="5"/>
       <c r="AE534" s="5"/>
     </row>
-    <row r="535" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -30794,7 +30796,7 @@
       <c r="AD535" s="5"/>
       <c r="AE535" s="5"/>
     </row>
-    <row r="536" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>41</v>
       </c>
@@ -30849,7 +30851,7 @@
       <c r="AD536" s="5"/>
       <c r="AE536" s="5"/>
     </row>
-    <row r="537" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>42</v>
       </c>
@@ -30904,7 +30906,7 @@
       <c r="AD537" s="5"/>
       <c r="AE537" s="5"/>
     </row>
-    <row r="538" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>43</v>
       </c>
@@ -30959,7 +30961,7 @@
       <c r="AD538" s="5"/>
       <c r="AE538" s="5"/>
     </row>
-    <row r="539" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>44</v>
       </c>
@@ -31014,7 +31016,7 @@
       <c r="AD539" s="5"/>
       <c r="AE539" s="5"/>
     </row>
-    <row r="540" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>45</v>
       </c>
@@ -31069,7 +31071,7 @@
       <c r="AD540" s="5"/>
       <c r="AE540" s="5"/>
     </row>
-    <row r="541" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>46</v>
       </c>
@@ -31124,7 +31126,7 @@
       <c r="AD541" s="5"/>
       <c r="AE541" s="5"/>
     </row>
-    <row r="542" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>49</v>
       </c>
@@ -31179,7 +31181,7 @@
       <c r="AD542" s="5"/>
       <c r="AE542" s="5"/>
     </row>
-    <row r="543" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>47</v>
       </c>
@@ -31234,7 +31236,7 @@
       <c r="AD543" s="5"/>
       <c r="AE543" s="5"/>
     </row>
-    <row r="544" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>48</v>
       </c>
@@ -31289,7 +31291,7 @@
       <c r="AD544" s="5"/>
       <c r="AE544" s="5"/>
     </row>
-    <row r="545" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>250</v>
       </c>
@@ -31344,7 +31346,7 @@
       <c r="AD545" s="5"/>
       <c r="AE545" s="5"/>
     </row>
-    <row r="546" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>250</v>
       </c>
@@ -31399,7 +31401,7 @@
       <c r="AD546" s="5"/>
       <c r="AE546" s="5"/>
     </row>
-    <row r="547" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>251</v>
       </c>
@@ -31454,7 +31456,7 @@
       <c r="AD547" s="5"/>
       <c r="AE547" s="5"/>
     </row>
-    <row r="548" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>252</v>
       </c>
@@ -31509,7 +31511,7 @@
       <c r="AD548" s="5"/>
       <c r="AE548" s="5"/>
     </row>
-    <row r="549" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>253</v>
       </c>
@@ -31564,7 +31566,7 @@
       <c r="AD549" s="5"/>
       <c r="AE549" s="5"/>
     </row>
-    <row r="550" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>254</v>
       </c>
@@ -31619,7 +31621,7 @@
       <c r="AD550" s="5"/>
       <c r="AE550" s="5"/>
     </row>
-    <row r="551" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>255</v>
       </c>
@@ -31674,7 +31676,7 @@
       <c r="AD551" s="5"/>
       <c r="AE551" s="5"/>
     </row>
-    <row r="552" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>256</v>
       </c>
@@ -31729,7 +31731,7 @@
       <c r="AD552" s="5"/>
       <c r="AE552" s="5"/>
     </row>
-    <row r="553" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>257</v>
       </c>
@@ -31784,7 +31786,7 @@
       <c r="AD553" s="5"/>
       <c r="AE553" s="5"/>
     </row>
-    <row r="554" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>258</v>
       </c>
@@ -31839,7 +31841,7 @@
       <c r="AD554" s="5"/>
       <c r="AE554" s="5"/>
     </row>
-    <row r="555" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>259</v>
       </c>
@@ -31894,7 +31896,7 @@
       <c r="AD555" s="5"/>
       <c r="AE555" s="5"/>
     </row>
-    <row r="556" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>260</v>
       </c>
@@ -31949,7 +31951,7 @@
       <c r="AD556" s="5"/>
       <c r="AE556" s="5"/>
     </row>
-    <row r="557" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>260</v>
       </c>
@@ -32004,7 +32006,7 @@
       <c r="AD557" s="5"/>
       <c r="AE557" s="5"/>
     </row>
-    <row r="558" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>260</v>
       </c>
@@ -32059,7 +32061,7 @@
       <c r="AD558" s="5"/>
       <c r="AE558" s="5"/>
     </row>
-    <row r="559" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>261</v>
       </c>
@@ -32114,7 +32116,7 @@
       <c r="AD559" s="5"/>
       <c r="AE559" s="5"/>
     </row>
-    <row r="560" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>262</v>
       </c>
@@ -32169,7 +32171,7 @@
       <c r="AD560" s="5"/>
       <c r="AE560" s="5"/>
     </row>
-    <row r="561" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>262</v>
       </c>
@@ -32224,7 +32226,7 @@
       <c r="AD561" s="5"/>
       <c r="AE561" s="5"/>
     </row>
-    <row r="562" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>263</v>
       </c>
@@ -32279,7 +32281,7 @@
       <c r="AD562" s="5"/>
       <c r="AE562" s="5"/>
     </row>
-    <row r="563" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>264</v>
       </c>
@@ -32334,7 +32336,7 @@
       <c r="AD563" s="5"/>
       <c r="AE563" s="5"/>
     </row>
-    <row r="564" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>264</v>
       </c>
@@ -32389,7 +32391,7 @@
       <c r="AD564" s="5"/>
       <c r="AE564" s="5"/>
     </row>
-    <row r="565" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>265</v>
       </c>
@@ -32444,7 +32446,7 @@
       <c r="AD565" s="5"/>
       <c r="AE565" s="5"/>
     </row>
-    <row r="566" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>266</v>
       </c>
@@ -32499,7 +32501,7 @@
       <c r="AD566" s="5"/>
       <c r="AE566" s="5"/>
     </row>
-    <row r="567" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>267</v>
       </c>
@@ -32554,7 +32556,7 @@
       <c r="AD567" s="5"/>
       <c r="AE567" s="5"/>
     </row>
-    <row r="568" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>268</v>
       </c>
@@ -32609,7 +32611,7 @@
       <c r="AD568" s="5"/>
       <c r="AE568" s="5"/>
     </row>
-    <row r="569" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>269</v>
       </c>
@@ -32664,7 +32666,7 @@
       <c r="AD569" s="5"/>
       <c r="AE569" s="5"/>
     </row>
-    <row r="570" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>270</v>
       </c>
@@ -32719,7 +32721,7 @@
       <c r="AD570" s="5"/>
       <c r="AE570" s="5"/>
     </row>
-    <row r="571" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>270</v>
       </c>
@@ -32774,7 +32776,7 @@
       <c r="AD571" s="5"/>
       <c r="AE571" s="5"/>
     </row>
-    <row r="572" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>271</v>
       </c>
@@ -32829,7 +32831,7 @@
       <c r="AD572" s="5"/>
       <c r="AE572" s="5"/>
     </row>
-    <row r="573" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>250</v>
       </c>
@@ -32884,7 +32886,7 @@
       <c r="AD573" s="5"/>
       <c r="AE573" s="5"/>
     </row>
-    <row r="574" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>250</v>
       </c>
@@ -32939,7 +32941,7 @@
       <c r="AD574" s="5"/>
       <c r="AE574" s="5"/>
     </row>
-    <row r="575" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>251</v>
       </c>
@@ -32994,7 +32996,7 @@
       <c r="AD575" s="5"/>
       <c r="AE575" s="5"/>
     </row>
-    <row r="576" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>251</v>
       </c>
@@ -33049,7 +33051,7 @@
       <c r="AD576" s="5"/>
       <c r="AE576" s="5"/>
     </row>
-    <row r="577" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>252</v>
       </c>
@@ -33104,7 +33106,7 @@
       <c r="AD577" s="5"/>
       <c r="AE577" s="5"/>
     </row>
-    <row r="578" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>253</v>
       </c>
@@ -33159,7 +33161,7 @@
       <c r="AD578" s="5"/>
       <c r="AE578" s="5"/>
     </row>
-    <row r="579" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>272</v>
       </c>
@@ -33214,7 +33216,7 @@
       <c r="AD579" s="5"/>
       <c r="AE579" s="5"/>
     </row>
-    <row r="580" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>254</v>
       </c>
@@ -33269,7 +33271,7 @@
       <c r="AD580" s="5"/>
       <c r="AE580" s="5"/>
     </row>
-    <row r="581" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>255</v>
       </c>
@@ -33324,7 +33326,7 @@
       <c r="AD581" s="5"/>
       <c r="AE581" s="5"/>
     </row>
-    <row r="582" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>257</v>
       </c>
@@ -33379,7 +33381,7 @@
       <c r="AD582" s="5"/>
       <c r="AE582" s="5"/>
     </row>
-    <row r="583" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>258</v>
       </c>
@@ -33434,7 +33436,7 @@
       <c r="AD583" s="5"/>
       <c r="AE583" s="5"/>
     </row>
-    <row r="584" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>258</v>
       </c>
@@ -33489,7 +33491,7 @@
       <c r="AD584" s="5"/>
       <c r="AE584" s="5"/>
     </row>
-    <row r="585" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>259</v>
       </c>
@@ -33544,7 +33546,7 @@
       <c r="AD585" s="5"/>
       <c r="AE585" s="5"/>
     </row>
-    <row r="586" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>259</v>
       </c>
@@ -33599,7 +33601,7 @@
       <c r="AD586" s="5"/>
       <c r="AE586" s="5"/>
     </row>
-    <row r="587" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>260</v>
       </c>
@@ -33654,7 +33656,7 @@
       <c r="AD587" s="5"/>
       <c r="AE587" s="5"/>
     </row>
-    <row r="588" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>273</v>
       </c>
@@ -33709,7 +33711,7 @@
       <c r="AD588" s="5"/>
       <c r="AE588" s="5"/>
     </row>
-    <row r="589" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>261</v>
       </c>
@@ -33764,7 +33766,7 @@
       <c r="AD589" s="5"/>
       <c r="AE589" s="5"/>
     </row>
-    <row r="590" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>262</v>
       </c>
@@ -33819,7 +33821,7 @@
       <c r="AD590" s="5"/>
       <c r="AE590" s="5"/>
     </row>
-    <row r="591" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>263</v>
       </c>
@@ -33874,7 +33876,7 @@
       <c r="AD591" s="5"/>
       <c r="AE591" s="5"/>
     </row>
-    <row r="592" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>264</v>
       </c>
@@ -33929,7 +33931,7 @@
       <c r="AD592" s="5"/>
       <c r="AE592" s="5"/>
     </row>
-    <row r="593" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>265</v>
       </c>
@@ -33984,7 +33986,7 @@
       <c r="AD593" s="5"/>
       <c r="AE593" s="5"/>
     </row>
-    <row r="594" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>266</v>
       </c>
@@ -34039,7 +34041,7 @@
       <c r="AD594" s="5"/>
       <c r="AE594" s="5"/>
     </row>
-    <row r="595" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>267</v>
       </c>
@@ -34094,7 +34096,7 @@
       <c r="AD595" s="5"/>
       <c r="AE595" s="5"/>
     </row>
-    <row r="596" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>268</v>
       </c>
@@ -34149,7 +34151,7 @@
       <c r="AD596" s="5"/>
       <c r="AE596" s="5"/>
     </row>
-    <row r="597" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>268</v>
       </c>
@@ -34204,7 +34206,7 @@
       <c r="AD597" s="5"/>
       <c r="AE597" s="5"/>
     </row>
-    <row r="598" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>269</v>
       </c>
@@ -34259,7 +34261,7 @@
       <c r="AD598" s="5"/>
       <c r="AE598" s="5"/>
     </row>
-    <row r="599" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>269</v>
       </c>
@@ -34314,7 +34316,7 @@
       <c r="AD599" s="5"/>
       <c r="AE599" s="5"/>
     </row>
-    <row r="600" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>270</v>
       </c>
@@ -34369,7 +34371,7 @@
       <c r="AD600" s="5"/>
       <c r="AE600" s="5"/>
     </row>
-    <row r="601" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>271</v>
       </c>
@@ -34436,625 +34438,479 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97E9C43-46F1-4C84-B508-D653FB55C3ED}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2752E2ED-B106-4EBE-9393-7116E6EC1880}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>62.23021</v>
       </c>
       <c r="C2" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>25.74335</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B3" s="7">
-        <v>6</v>
+        <v>62.223508000000002</v>
       </c>
       <c r="C3" s="7">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>25.772324000000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>32.351522000000003</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>-89.941708000000006</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>277</v>
       </c>
       <c r="B5" s="7">
-        <v>4</v>
+        <v>39.654770999999997</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>-105.59131600000001</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
+        <v>53.558889000000001</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>-2.3966669999999999</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>224</v>
       </c>
       <c r="B7" s="7">
-        <v>6</v>
+        <v>44.387751999999999</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>10.444767000000001</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>198</v>
       </c>
       <c r="B8" s="7">
-        <v>22</v>
+        <v>44.396160000000002</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>10.004149999999999</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="7">
-        <v>16</v>
+        <v>62.227657000000001</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>25.739844999999999</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>61.905289992</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23.345813855999999</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>46.395277999999998</v>
+      </c>
+      <c r="C11" s="10">
+        <v>10.5875</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" t="s">
-        <v>276</v>
-      </c>
+      <c r="B12" s="9">
+        <v>46.395277999999998</v>
+      </c>
+      <c r="C12" s="10">
+        <v>10.587</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="11">
+        <v>62.243088999999998</v>
+      </c>
+      <c r="C13" s="10">
+        <v>25.715446</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2752E2ED-B106-4EBE-9393-7116E6EC1880}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="7">
-        <v>62.23021</v>
-      </c>
-      <c r="C2" s="7">
-        <v>25.74335</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="7">
-        <v>62.223508000000002</v>
-      </c>
-      <c r="C3" s="7">
-        <v>25.772324000000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4" s="7">
-        <v>32.351522000000003</v>
-      </c>
-      <c r="C4" s="7">
-        <v>-89.941708000000006</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="7">
-        <v>39.654770999999997</v>
-      </c>
-      <c r="C5" s="7">
-        <v>-105.59131600000001</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6" s="7">
-        <v>53.558889000000001</v>
-      </c>
-      <c r="C6" s="7">
-        <v>-2.3966669999999999</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="7">
-        <v>44.387751999999999</v>
-      </c>
-      <c r="C7" s="7">
-        <v>10.444767000000001</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44.396160000000002</v>
-      </c>
-      <c r="C8" s="7">
-        <v>10.004149999999999</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="7">
-        <v>62.227657000000001</v>
-      </c>
-      <c r="C9" s="7">
-        <v>25.739844999999999</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="7">
-        <v>61.905289992</v>
-      </c>
-      <c r="C10" s="7">
-        <v>23.345813855999999</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="9">
-        <v>46.395277999999998</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10.5875</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9">
-        <v>46.395277999999998</v>
-      </c>
-      <c r="C12" s="10">
-        <v>10.587</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="11">
-        <v>60.398888999999997</v>
-      </c>
-      <c r="C13" s="10">
-        <v>21.259934000000001</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FE5FD4-FF09-4414-9394-86267D15AD37}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>198</v>
       </c>
       <c r="B10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>223</v>
       </c>
       <c r="B11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
